--- a/nis_question_bot/bot/data.xlsx
+++ b/nis_question_bot/bot/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>pic_link</t>
   </si>
@@ -235,12 +235,18 @@
   </si>
   <si>
     <t>Опишите, пожалуйста, в одном коротком предложении ситуацию, которая происходит на картинке</t>
+  </si>
+  <si>
+    <t>девочка стреляет из пистолета</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -301,12 +307,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1071,6 +1078,80 @@
         <v>125963162</v>
       </c>
     </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>125963162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>125963162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>125963162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>125963162</v>
+      </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="3">
+        <v>25569.00001751927</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nis_question_bot/bot/data.xlsx
+++ b/nis_question_bot/bot/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>pic_link</t>
   </si>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t>девочка стреляет из пистолета</t>
+  </si>
+  <si>
+    <t>Кошка кормит котят</t>
+  </si>
+  <si>
+    <t>Девочка гладит собаку</t>
+  </si>
+  <si>
+    <t>Девочка выгуливает медведя</t>
+  </si>
+  <si>
+    <t>мужчина кормит пингвина</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1006,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1016,6 +1028,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>249457960</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1023,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1149,7 +1169,116 @@
         <v>73</v>
       </c>
       <c r="J6" s="3">
-        <v>25569.00001751927</v>
+        <v>25569.00001752315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>249457960</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="3">
+        <v>25569.00001752315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>249457960</v>
+      </c>
+      <c r="H8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="3">
+        <v>25569.00001752315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>125963162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>125963162</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="3">
+        <v>25569.00001751939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>125963162</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="3">
+        <v>25569.00001751939</v>
       </c>
     </row>
   </sheetData>
